--- a/document/Design/Field Definition/Field_Defined_Movie.xlsx
+++ b/document/Design/Field Definition/Field_Defined_Movie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="MOVIE010100" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
-  <si>
-    <t>Return to Index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
   <si>
     <t>Product</t>
   </si>
@@ -45,18 +42,12 @@
     <t>Field Name</t>
   </si>
   <si>
-    <t>Display Field Name</t>
-  </si>
-  <si>
     <t>Placeholder</t>
   </si>
   <si>
     <t>Field Type</t>
   </si>
   <si>
-    <t>Tab Index</t>
-  </si>
-  <si>
     <t>I /O (Input/Output)</t>
   </si>
   <si>
@@ -75,54 +66,33 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>M/O/C/D(Mandatory/Optional/Conditional/Display)</t>
-  </si>
-  <si>
     <t>Length of the Field</t>
   </si>
   <si>
     <t>Interface Point (Host Name/DB)</t>
   </si>
   <si>
-    <t>Validations with Result (Including Errer Msg Code)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comments </t>
   </si>
   <si>
     <t>Criteria</t>
   </si>
   <si>
-    <t>Board Name</t>
-  </si>
-  <si>
-    <t>Textbox</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>Ref# DB</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>DB (mbm_board)</t>
-  </si>
-  <si>
     <t>Screen Control</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Button/Link Name</t>
-  </si>
-  <si>
     <t>Next Screen Name or Action</t>
   </si>
   <si>
@@ -132,29 +102,9 @@
     <t>Permission</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>Create Board</t>
-  </si>
-  <si>
-    <t>Redirect to BMSMT0202 Create Board</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
-    <t>BMSMT020200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กรณีสำหรับ User ที่กำลัง login  
-- ถูกถอดสิทธิ์  [Object Permission = BMSMT020200]  
-- Role ถูก Inactive โดยผู้ใช้งานท่านอื่น error COM01301  
-- User ถูกปลดออกจาก Role โดยผู้ใช้งานท่านอื่น error COM01301  
-- User ถูก Inactive โดยผู้ใช้งานท่านอื่น error COM01301  
-- User ถูก lock โดยผู้ใช้งานท่านอื่น error COM01301 </t>
-  </si>
-  <si>
     <t>Movie</t>
   </si>
   <si>
@@ -168,24 +118,306 @@
   </si>
   <si>
     <t>Header</t>
+  </si>
+  <si>
+    <t>หน้าแรก</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ภาพยนต์ทั้งหมด</t>
+  </si>
+  <si>
+    <t>Display Field Name (TH)</t>
+  </si>
+  <si>
+    <t>Display Field Name (EN)</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>คนชอบมากที่สุด</t>
+  </si>
+  <si>
+    <t>Public Favorite</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>ติดต่อเรา</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Button/Link Name (TH)</t>
+  </si>
+  <si>
+    <t>Button/Link Name(EN)</t>
+  </si>
+  <si>
+    <t>Redirect to MOVIE0101</t>
+  </si>
+  <si>
+    <t>MOVIE0101</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>AutoComplete</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>movies_search</t>
+  </si>
+  <si>
+    <t>#REF_Movies</t>
+  </si>
+  <si>
+    <t>เข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>สมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>movie_top_list</t>
+  </si>
+  <si>
+    <t>movie_recommend_list</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>แสดงเมื่อ Login และมีข้อมูลการให้คะแนนหนังอย่างน้อย 1 เรื่อง</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>contact_us</t>
+  </si>
+  <si>
+    <t>public_favorite</t>
+  </si>
+  <si>
+    <t>sign_in</t>
+  </si>
+  <si>
+    <t>sign_up</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>#REF_Config</t>
+  </si>
+  <si>
+    <t>ภาพยนต์ที่คนนิยมมากที่สุด</t>
+  </si>
+  <si>
+    <t>ภาพยนต์แนะนำสำหรับคุณ</t>
+  </si>
+  <si>
+    <t>Movies Top Rated</t>
+  </si>
+  <si>
+    <t>Movies recommended for you</t>
+  </si>
+  <si>
+    <t>movie_genres_list</t>
+  </si>
+  <si>
+    <t>ภาพยนต์[genres]</t>
+  </si>
+  <si>
+    <t>[Genres] Movies</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>copy_right</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>© [Team]</t>
+    </r>
+  </si>
+  <si>
+    <t>Reference Spec</t>
+  </si>
+  <si>
+    <t>movies_list</t>
+  </si>
+  <si>
+    <t>Redirect to MOVIE0102</t>
+  </si>
+  <si>
+    <t>Redirect to MOVIE0103</t>
+  </si>
+  <si>
+    <t>Redirect to MOVIE0301</t>
+  </si>
+  <si>
+    <t>MOVIE0102</t>
+  </si>
+  <si>
+    <t>MOVIE0103</t>
+  </si>
+  <si>
+    <t>MOVIE0301</t>
+  </si>
+  <si>
+    <t>SCREEN CODE</t>
+  </si>
+  <si>
+    <t>กรณีสามารถค้นหาได้
+- Word Search
+- Limit 20 Movies
+กรณีไม่สามารถค้นหาได้
+- บัญชีผู้ใช้ถูกระงับการใช้งาน</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>กรณียังไม่ทำการเข้าสู่ระบบ
+- แสดงปุ่ม เข้าสู่ระบบ
+กรณีเข้าสู่ระบบแล้ว
+- แสดงชื่อผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>กรณียังไม่ทำการเข้าสู่ระบบ
+- แสดงปุ่ม สมัครสมาชิก
+กรณีเข้าสู่ระบบแล้ว
+- แสดงปุ่มการจัดการบัญชี</t>
+  </si>
+  <si>
+    <t>แสดงเมื่อยังไม่มีการเข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>manage_user</t>
+  </si>
+  <si>
+    <t>[ชื่อผู้ใช้งาน]</t>
+  </si>
+  <si>
+    <t>[user name]</t>
+  </si>
+  <si>
+    <t>จัดการบัญชี</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>แสดงเมื่อมีการเข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>Slide Bar</t>
+  </si>
+  <si>
+    <t>Button
+(Left / Right)</t>
+  </si>
+  <si>
+    <t>กรณียังไม่ทำการเข้าสู่ระบบ
+- ไม่แสดงแถบภาพยนต์แนะนำ
+กรณีเข้าสู่ระบบแล้ว
+- แสดงแถบภาพยนต์แนะนำ
+ภาพยนต์แนะนำทั้งหมด 10 เรื่อง
+แสดง slide ไม่เกิน 6 เรื่อง</t>
+  </si>
+  <si>
+    <t>ภาพยนต์ที่ได้รับความนิยมทั้งหมด 10 เรื่อง
+แสดง slide ไม่เกิน 6 เรื่อง</t>
+  </si>
+  <si>
+    <t>ภาพยนต์แบ่งตามหมวดหมู่ หมวดหมู่ละ 10 เรื่อง
+แสดง slide ไม่เกิน 6 เรื่อง</t>
+  </si>
+  <si>
+    <t>see_all</t>
+  </si>
+  <si>
+    <t>ดูทั้งหมด</t>
+  </si>
+  <si>
+    <t>SEE ALL</t>
+  </si>
+  <si>
+    <t>Redirect to MOVIE0104</t>
+  </si>
+  <si>
+    <t>MOVIE0104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -193,7 +425,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -202,15 +434,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,7 +446,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -230,22 +454,20 @@
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -278,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,100 +610,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -768,302 +992,1176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.75" customWidth="1"/>
-    <col min="18" max="18" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="45.75" thickBot="1">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" customHeight="1">
+      <c r="A13" s="11">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" ht="18" customHeight="1">
+      <c r="A14" s="11">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1">
+      <c r="A15" s="11">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" ht="30">
+      <c r="A16" s="11">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="1:17" ht="33" customHeight="1">
+      <c r="A17" s="11">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" ht="30">
+      <c r="A18" s="11">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" ht="33" customHeight="1">
+      <c r="A19" s="11">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="1:17" ht="18" customHeight="1">
+      <c r="A20" s="11">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" ht="18" customHeight="1">
+      <c r="A21" s="11">
+        <v>12</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" ht="63" customHeight="1">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" ht="18" customHeight="1">
+      <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" ht="18" customHeight="1">
+      <c r="A25" s="11">
+        <v>3</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="18" customHeight="1">
+      <c r="A27" s="11">
+        <v>1</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" ht="18" customHeight="1">
+      <c r="A32" s="11">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18" customHeight="1">
+      <c r="A33" s="11">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18" customHeight="1">
+      <c r="A34" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="B34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="18" customHeight="1">
+      <c r="A35" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="B35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="81" customHeight="1">
+      <c r="A36" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" ht="66" customHeight="1">
+      <c r="A37" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="23"/>
+    </row>
+    <row r="38" spans="1:14" ht="66" customHeight="1">
+      <c r="A38" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="B38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" ht="112.5" customHeight="1">
+      <c r="A39" s="11">
         <v>8</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="B39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="23"/>
+    </row>
+    <row r="40" spans="1:14" ht="66" customHeight="1">
+      <c r="A40" s="11">
         <v>9</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="B40" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" ht="66" customHeight="1">
+      <c r="A41" s="11">
         <v>10</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="B41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="23"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
-        <v>1</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
+      <c r="H42" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:P15"/>
+  <mergeCells count="24">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="Index!A1"/>
+    <hyperlink ref="B5:C5" r:id="rId1" display="movies_list"/>
+    <hyperlink ref="H29" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/document/Design/Field Definition/Field_Defined_Movie.xlsx
+++ b/document/Design/Field Definition/Field_Defined_Movie.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
   <si>
     <t>Product</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>MOVIE0104</t>
+  </si>
+  <si>
+    <t>lang_en</t>
+  </si>
+  <si>
+    <t>lang_th</t>
   </si>
 </sst>
 </file>
@@ -671,6 +677,21 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -680,9 +701,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -694,18 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -994,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1019,10 +1025,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
@@ -1030,10 +1036,10 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
@@ -1041,10 +1047,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
@@ -1052,10 +1058,10 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -1063,10 +1069,10 @@
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -1522,7 +1528,9 @@
       <c r="A20" s="11">
         <v>11</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
         <v>59</v>
@@ -1553,7 +1561,9 @@
       <c r="A21" s="11">
         <v>12</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
         <v>60</v>
@@ -1581,7 +1591,7 @@
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="9"/>
@@ -1709,7 +1719,7 @@
       <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="9"/>
@@ -1774,7 +1784,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="5"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1791,10 +1801,10 @@
       <c r="D30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1827,10 +1837,10 @@
       <c r="D32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="23"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="13" t="s">
         <v>27</v>
       </c>
@@ -1851,10 +1861,10 @@
       <c r="D33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="13" t="s">
         <v>27</v>
       </c>
@@ -1875,10 +1885,10 @@
       <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="23"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="13" t="s">
         <v>27</v>
       </c>
@@ -1899,10 +1909,10 @@
       <c r="D35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="23"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="13" t="s">
         <v>27</v>
       </c>
@@ -1923,22 +1933,22 @@
       <c r="D36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="23"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="66" customHeight="1">
       <c r="A37" s="11">
@@ -1953,24 +1963,24 @@
       <c r="D37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="23"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="66" customHeight="1">
       <c r="A38" s="11">
@@ -1985,24 +1995,24 @@
       <c r="D38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="23"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="23"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="112.5" customHeight="1">
       <c r="A39" s="11">
@@ -2017,24 +2027,24 @@
       <c r="D39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="23"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="66" customHeight="1">
       <c r="A40" s="11">
@@ -2049,24 +2059,24 @@
       <c r="D40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="23"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="66" customHeight="1">
       <c r="A41" s="11">
@@ -2081,24 +2091,24 @@
       <c r="D41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="23"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="11">
@@ -2113,42 +2123,25 @@
       <c r="D42" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="23"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="23"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -2156,6 +2149,23 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:N42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5:C5" r:id="rId1" display="movies_list"/>

--- a/document/Design/Field Definition/Field_Defined_Movie.xlsx
+++ b/document/Design/Field Definition/Field_Defined_Movie.xlsx
@@ -310,13 +310,6 @@
     <t>SCREEN CODE</t>
   </si>
   <si>
-    <t>กรณีสามารถค้นหาได้
-- Word Search
-- Limit 20 Movies
-กรณีไม่สามารถค้นหาได้
-- บัญชีผู้ใช้ถูกระงับการใช้งาน</t>
-  </si>
-  <si>
     <t>Modal</t>
   </si>
   <si>
@@ -398,6 +391,13 @@
   </si>
   <si>
     <t>lang_th</t>
+  </si>
+  <si>
+    <t>กรณีสามารถค้นหาได้
+- Word Search
+- Limit 10 Movies
+กรณีไม่สามารถค้นหาได้
+- บัญชีผู้ใช้ถูกระงับการใช้งาน</t>
   </si>
 </sst>
 </file>
@@ -689,29 +689,29 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1025,10 +1025,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
@@ -1036,10 +1036,10 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
@@ -1047,10 +1047,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
@@ -1058,10 +1058,10 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -1069,10 +1069,10 @@
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -1409,7 +1409,7 @@
         <v>73</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="13"/>
     </row>
@@ -1446,7 +1446,7 @@
         <v>73</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="13"/>
     </row>
@@ -1455,13 +1455,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
@@ -1483,7 +1483,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="13"/>
     </row>
@@ -1492,13 +1492,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
@@ -1520,7 +1520,7 @@
         <v>73</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
@@ -1529,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
@@ -1801,10 +1801,10 @@
       <c r="D30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1942,12 +1942,12 @@
         <v>48</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
       <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="66" customHeight="1">
@@ -1964,7 +1964,7 @@
         <v>55</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="13" t="s">
@@ -1974,12 +1974,12 @@
         <v>48</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="66" customHeight="1">
@@ -1996,7 +1996,7 @@
         <v>58</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="13" t="s">
@@ -2006,12 +2006,12 @@
         <v>48</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="112.5" customHeight="1">
@@ -2028,22 +2028,22 @@
         <v>77</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="66" customHeight="1">
@@ -2060,22 +2060,22 @@
         <v>76</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="66" customHeight="1">
@@ -2092,22 +2092,22 @@
         <v>80</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14">
@@ -2115,33 +2115,50 @@
         <v>10.1</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="16"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
       <c r="N42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -2149,23 +2166,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:N42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5:C5" r:id="rId1" display="movies_list"/>

--- a/document/Design/Field Definition/Field_Defined_Movie.xlsx
+++ b/document/Design/Field Definition/Field_Defined_Movie.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{54BFAAAC-CFD2-47C6-AF4E-DD367A4EB570}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOVIE010100" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
   <si>
     <t>Product</t>
   </si>
@@ -331,9 +332,6 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>manage_user</t>
-  </si>
-  <si>
     <t>[ชื่อผู้ใช้งาน]</t>
   </si>
   <si>
@@ -399,11 +397,17 @@
 กรณีไม่สามารถค้นหาได้
 - บัญชีผู้ใช้ถูกระงับการใช้งาน</t>
   </si>
+  <si>
+    <t>หน้าหลัก</t>
+  </si>
+  <si>
+    <t>manage_account</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -689,6 +693,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -710,17 +717,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="40% - Accent3 2 2 2" xfId="5"/>
+    <cellStyle name="40% - Accent3 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1 2" xfId="4"/>
+    <cellStyle name="Normal_Sheet1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37:N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1025,10 +1029,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
@@ -1036,10 +1040,10 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
@@ -1047,10 +1051,10 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
@@ -1058,10 +1062,10 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -1069,10 +1073,10 @@
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -1180,7 +1184,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>38</v>
@@ -1458,10 +1462,10 @@
         <v>97</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
@@ -1483,7 +1487,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="13"/>
     </row>
@@ -1492,13 +1496,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
@@ -1520,7 +1524,7 @@
         <v>73</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="13"/>
     </row>
@@ -1529,7 +1533,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
@@ -1562,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
@@ -1801,10 +1805,10 @@
       <c r="D30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1942,12 +1946,12 @@
         <v>48</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="66" customHeight="1">
@@ -1976,10 +1980,10 @@
       <c r="I37" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="66" customHeight="1">
@@ -2008,10 +2012,10 @@
       <c r="I38" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="112.5" customHeight="1">
@@ -2028,22 +2032,22 @@
         <v>77</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="66" customHeight="1">
@@ -2060,22 +2064,22 @@
         <v>76</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="66" customHeight="1">
@@ -2092,22 +2096,22 @@
         <v>80</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
       <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14">
@@ -2115,50 +2119,33 @@
         <v>10.1</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I42" s="16"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -2166,10 +2153,27 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:N42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5:C5" r:id="rId1" display="movies_list"/>
-    <hyperlink ref="H29" r:id="rId2"/>
+    <hyperlink ref="B5:C5" r:id="rId1" display="movies_list" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
